--- a/4-17-2017/scaled_Sp17_with_Sp16_data.xlsx
+++ b/4-17-2017/scaled_Sp17_with_Sp16_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="7905" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="constant torque m vs c" sheetId="1" r:id="rId1"/>
@@ -322,12 +322,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -360,6 +354,12 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1924,11 +1924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143859440"/>
-        <c:axId val="143860000"/>
+        <c:axId val="107572576"/>
+        <c:axId val="107574816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143859440"/>
+        <c:axId val="107572576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,12 +2021,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143860000"/>
+        <c:crossAx val="107574816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143860000"/>
+        <c:axId val="107574816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143859440"/>
+        <c:crossAx val="107572576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2203,7 +2203,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Motor Speed at constant values of Torque</a:t>
+              <a:t>Motor Speed at constant values of Torque and 91.5V</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2228,7 +2228,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>5 ft-lb</c:v>
+            <c:v>5 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2484,7 +2484,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>10 ft-lb</c:v>
+            <c:v>10 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2734,7 +2734,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>15 ft-lb</c:v>
+            <c:v>15 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2984,7 +2984,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>20 ft-lb</c:v>
+            <c:v>20 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3221,7 +3221,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>25 ft-lb</c:v>
+            <c:v>25 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3430,7 +3430,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>30 ft-lb</c:v>
+            <c:v>30 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3609,7 +3609,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>35 ft-lb</c:v>
+            <c:v>35 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3708,7 +3708,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>40 ft-lb</c:v>
+            <c:v>40 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3811,11 +3811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143866720"/>
-        <c:axId val="143867280"/>
+        <c:axId val="153646464"/>
+        <c:axId val="153647024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143866720"/>
+        <c:axId val="153646464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,12 +3908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143867280"/>
+        <c:crossAx val="153647024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143867280"/>
+        <c:axId val="153647024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143866720"/>
+        <c:crossAx val="153646464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4135,7 +4135,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>5 ft-lb</c:v>
+            <c:v>5 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4412,7 +4412,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>10 ft-lb</c:v>
+            <c:v>10 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -4650,7 +4650,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>15 ft-lb</c:v>
+            <c:v>15 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -4770,7 +4770,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>20 ft-lb</c:v>
+            <c:v>20 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -4995,7 +4995,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>25 ft-lb</c:v>
+            <c:v>25 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5194,7 +5194,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>30 ft-lb</c:v>
+            <c:v>30 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5367,7 +5367,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>35 ft-lb</c:v>
+            <c:v>35 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5486,7 +5486,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>40 ft-lb</c:v>
+            <c:v>40 lb-ft</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5610,11 +5610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145861248"/>
-        <c:axId val="145861808"/>
+        <c:axId val="153499568"/>
+        <c:axId val="153500128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145861248"/>
+        <c:axId val="153499568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5727,12 +5727,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145861808"/>
+        <c:crossAx val="153500128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145861808"/>
+        <c:axId val="153500128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,7 +5845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145861248"/>
+        <c:crossAx val="153499568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5934,6 +5934,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6011,7 +6012,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6299,7 +6302,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6724,7 +6729,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7298,6 +7305,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7405,6 +7413,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -7430,7 +7439,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7885,11 +7896,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146517040"/>
-        <c:axId val="146517600"/>
+        <c:axId val="154646256"/>
+        <c:axId val="154646816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146517040"/>
+        <c:axId val="154646256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7935,6 +7946,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7981,12 +7993,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146517600"/>
+        <c:crossAx val="154646816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146517600"/>
+        <c:axId val="154646816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8032,6 +8044,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8078,7 +8091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146517040"/>
+        <c:crossAx val="154646256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8167,6 +8180,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8244,7 +8258,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8532,7 +8548,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9001,7 +9019,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9280,7 +9300,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9553,7 +9575,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9793,7 +9817,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10007,7 +10033,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10195,7 +10223,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10303,11 +10333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146524880"/>
-        <c:axId val="146525440"/>
+        <c:axId val="154654096"/>
+        <c:axId val="154654656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146524880"/>
+        <c:axId val="154654096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10353,6 +10383,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10399,12 +10430,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146525440"/>
+        <c:crossAx val="154654656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146525440"/>
+        <c:axId val="154654656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10450,6 +10481,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10496,7 +10528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146524880"/>
+        <c:crossAx val="154654096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11117,11 +11149,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146528800"/>
-        <c:axId val="146529360"/>
+        <c:axId val="156496400"/>
+        <c:axId val="156496960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146528800"/>
+        <c:axId val="156496400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11213,12 +11245,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146529360"/>
+        <c:crossAx val="156496960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146529360"/>
+        <c:axId val="156496960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11310,7 +11342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146528800"/>
+        <c:crossAx val="156496400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11399,6 +11431,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11748,7 +11781,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12027,7 +12062,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12300,7 +12337,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12540,7 +12579,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12754,7 +12795,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12942,7 +12985,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -13050,11 +13095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147263728"/>
-        <c:axId val="147264288"/>
+        <c:axId val="156502560"/>
+        <c:axId val="156503120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147263728"/>
+        <c:axId val="156502560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13100,6 +13145,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13146,12 +13192,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147264288"/>
+        <c:crossAx val="156503120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147264288"/>
+        <c:axId val="156503120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13197,6 +13243,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13243,7 +13290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147263728"/>
+        <c:crossAx val="156502560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13852,11 +13899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147718640"/>
-        <c:axId val="147719200"/>
+        <c:axId val="156452032"/>
+        <c:axId val="156452592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147718640"/>
+        <c:axId val="156452032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13969,12 +14016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147719200"/>
+        <c:crossAx val="156452592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147719200"/>
+        <c:axId val="156452592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14087,7 +14134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147718640"/>
+        <c:crossAx val="156452032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14245,54 +14292,42 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -14349,18 +14384,14 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14402,7 +14433,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -14579,63 +14609,49 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -14649,18 +14665,14 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14840,63 +14852,49 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -14924,27 +14922,21 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14986,7 +14978,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15125,63 +15116,49 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15244,7 +15221,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15365,36 +15341,28 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15457,7 +15425,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15563,18 +15530,14 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15637,7 +15600,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15731,9 +15693,7 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15796,7 +15756,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15856,11 +15815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147724800"/>
-        <c:axId val="147725360"/>
+        <c:axId val="156905392"/>
+        <c:axId val="156905952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147724800"/>
+        <c:axId val="156905392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15973,12 +15932,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147725360"/>
+        <c:crossAx val="156905952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147725360"/>
+        <c:axId val="156905952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16091,7 +16050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147724800"/>
+        <c:crossAx val="156905392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18511,9 +18470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -18522,11 +18481,11 @@
     <col min="3" max="3" width="16" style="11" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="12" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -18545,19 +18504,19 @@
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="46" t="s">
         <v>15</v>
       </c>
     </row>
@@ -18577,19 +18536,19 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="30">
         <v>0</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <v>0</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>0.18</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="18">
         <v>0</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18609,19 +18568,19 @@
       <c r="E3" s="3">
         <v>5.12</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="30">
         <v>5</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>0</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>0.14330000000000001</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18641,19 +18600,19 @@
       <c r="E4" s="3">
         <v>10.08</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="30">
         <v>10</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>0.23400000000000001</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="18">
         <v>0</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18673,19 +18632,19 @@
       <c r="E5" s="3">
         <v>15.12</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="30">
         <v>15</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>0.1</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>0</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18705,19 +18664,19 @@
       <c r="E6" s="3">
         <v>20.66</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <v>20</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>0</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>0.1</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>0</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18731,19 +18690,19 @@
       <c r="C7" s="9"/>
       <c r="D7" s="15"/>
       <c r="E7" s="9"/>
-      <c r="G7" s="32">
+      <c r="G7" s="30">
         <v>25</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>0</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>0</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18757,19 +18716,19 @@
       <c r="C8" s="9"/>
       <c r="D8" s="15"/>
       <c r="E8" s="9"/>
-      <c r="G8" s="32">
+      <c r="G8" s="30">
         <v>30</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>0.18571399999999999</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>0</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18783,19 +18742,19 @@
       <c r="C9" s="9"/>
       <c r="D9" s="15"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <v>35</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>0</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>0.130769230769231</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <v>0</v>
       </c>
     </row>
@@ -18809,15 +18768,15 @@
       <c r="C10" s="9"/>
       <c r="D10" s="15"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="32">
+      <c r="G10" s="30">
         <v>48</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>0</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="34"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
@@ -18835,15 +18794,15 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="30">
         <v>54</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <v>0</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="34"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
@@ -18861,15 +18820,15 @@
       <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <v>74</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>0</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="34"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
@@ -18887,15 +18846,15 @@
       <c r="E13" s="3">
         <v>10.1248</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="30">
         <v>84</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>0</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="34"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
@@ -18913,15 +18872,15 @@
       <c r="E14" s="3">
         <v>15.59</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="30">
         <v>90</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <v>0</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="34"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
@@ -18939,15 +18898,15 @@
       <c r="E15" s="3">
         <v>20.225999999999999</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="30">
         <v>100</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>0</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="34"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
@@ -18965,19 +18924,19 @@
       <c r="E16" s="3">
         <v>24.618400000000001</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="30">
         <v>0</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>5</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>21.04</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <v>1835.8</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="31">
         <v>5.12</v>
       </c>
     </row>
@@ -18991,19 +18950,19 @@
       <c r="C17" s="9"/>
       <c r="D17" s="15"/>
       <c r="E17" s="9"/>
-      <c r="G17" s="32">
+      <c r="G17" s="30">
         <v>5</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>5</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>18.96</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <v>1697.2</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="31">
         <v>5</v>
       </c>
     </row>
@@ -19017,19 +18976,19 @@
       <c r="C18" s="9"/>
       <c r="D18" s="15"/>
       <c r="E18" s="9"/>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <v>10</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <v>5</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>17.62</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <v>1592.6</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="31">
         <v>5.0007999999999999</v>
       </c>
     </row>
@@ -19043,19 +19002,19 @@
       <c r="C19" s="9"/>
       <c r="D19" s="15"/>
       <c r="E19" s="9"/>
-      <c r="G19" s="32">
+      <c r="G19" s="30">
         <v>15</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="19">
         <v>5</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>17.059999999999999</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="18">
         <v>1485.33</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <v>5.0007999999999999</v>
       </c>
     </row>
@@ -19075,19 +19034,19 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="30">
         <v>20</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="19">
         <v>5</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="19">
         <v>14.66</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="18">
         <v>1408.33</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="31">
         <v>5.29</v>
       </c>
     </row>
@@ -19107,19 +19066,19 @@
       <c r="E21" s="3">
         <v>5.0007999999999999</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <v>25</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="19">
         <v>5</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="19">
         <v>12.2</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="18">
         <v>1153.3330000000001</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="31">
         <v>4.952</v>
       </c>
       <c r="U21" t="s">
@@ -19142,19 +19101,19 @@
       <c r="E22" s="3">
         <v>10.17</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <v>30</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="19">
         <v>5</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="19">
         <v>12.06</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="18">
         <v>1009</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="31">
         <v>5.1959999999999997</v>
       </c>
     </row>
@@ -19174,19 +19133,19 @@
       <c r="E23" s="3">
         <v>15.05</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="30">
         <v>35</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="19">
         <v>5</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="18">
         <v>761.66</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="31">
         <v>5.0979999999999999</v>
       </c>
     </row>
@@ -19206,15 +19165,15 @@
       <c r="E24" s="3">
         <v>20.5</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <v>48</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="19">
         <v>5</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="34"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="2">
@@ -19226,15 +19185,15 @@
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
-      <c r="G25" s="32">
+      <c r="G25" s="30">
         <v>54</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="19">
         <v>5</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="34"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="2">
@@ -19246,19 +19205,19 @@
       <c r="C26" s="9"/>
       <c r="D26" s="15"/>
       <c r="E26" s="9"/>
-      <c r="G26" s="32">
+      <c r="G26" s="30">
         <v>74</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <v>5</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="19">
         <v>14.1</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="18">
         <v>1458</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="31">
         <v>5.44</v>
       </c>
     </row>
@@ -19272,19 +19231,19 @@
       <c r="C27" s="9"/>
       <c r="D27" s="15"/>
       <c r="E27" s="9"/>
-      <c r="G27" s="32">
+      <c r="G27" s="30">
         <v>84</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <v>5</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="19">
         <v>17.899999999999999</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="18">
         <v>1631</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="31">
         <v>5.44</v>
       </c>
     </row>
@@ -19298,19 +19257,19 @@
       <c r="C28" s="9"/>
       <c r="D28" s="15"/>
       <c r="E28" s="9"/>
-      <c r="G28" s="32">
+      <c r="G28" s="30">
         <v>90</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <v>5</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="19">
         <v>21.7</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="18">
         <v>1845</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="31">
         <v>5.1471999999999998</v>
       </c>
     </row>
@@ -19330,19 +19289,19 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="30">
         <v>100</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <v>5</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="19">
         <v>21.6</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="18">
         <v>1832</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="31">
         <v>5.0007999999999999</v>
       </c>
     </row>
@@ -19362,19 +19321,19 @@
       <c r="E30" s="3">
         <v>5.0007999999999999</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <v>0</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <v>10</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="19">
         <v>51.475000000000001</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="18">
         <v>2690.25</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="31">
         <v>10.08</v>
       </c>
     </row>
@@ -19394,19 +19353,19 @@
       <c r="E31" s="3">
         <v>9.9779999999999998</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="30">
         <v>5</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="19">
         <v>10</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="19">
         <v>49.3</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="18">
         <v>2495.6</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="31">
         <v>10.1248</v>
       </c>
     </row>
@@ -19426,19 +19385,19 @@
       <c r="E32" s="3">
         <v>15.102399999999999</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="30">
         <v>10</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="19">
         <v>10</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="19">
         <v>46.9</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="18">
         <v>2359.33</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="31">
         <v>10.17</v>
       </c>
     </row>
@@ -19458,19 +19417,19 @@
       <c r="E33" s="3">
         <v>21.519200000000001</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="30">
         <v>15</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="19">
         <v>10</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="19">
         <v>42.8</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="18">
         <v>2163.66</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="31">
         <v>9.9779999999999998</v>
       </c>
     </row>
@@ -19490,19 +19449,19 @@
       <c r="E34" s="3">
         <v>25.057600000000001</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="30">
         <v>20</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="19">
         <v>10</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="19">
         <v>37.200000000000003</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="18">
         <v>1860</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="31">
         <v>10.076000000000001</v>
       </c>
     </row>
@@ -19516,19 +19475,19 @@
       <c r="C35" s="9"/>
       <c r="D35" s="15"/>
       <c r="E35" s="9"/>
-      <c r="G35" s="32">
+      <c r="G35" s="30">
         <v>25</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="19">
         <v>10</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="19">
         <v>33.765999999999998</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="18">
         <v>1663.33</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="31">
         <v>10.17</v>
       </c>
     </row>
@@ -19542,19 +19501,19 @@
       <c r="C36" s="9"/>
       <c r="D36" s="15"/>
       <c r="E36" s="9"/>
-      <c r="G36" s="32">
+      <c r="G36" s="30">
         <v>30</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <v>10</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="19">
         <v>28.065999999999999</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="18">
         <v>1379.6669999999999</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="31">
         <v>10.1248</v>
       </c>
     </row>
@@ -19568,19 +19527,19 @@
       <c r="C37" s="9"/>
       <c r="D37" s="15"/>
       <c r="E37" s="9"/>
-      <c r="G37" s="32">
+      <c r="G37" s="30">
         <v>35</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="19">
         <v>10</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="23">
         <v>22</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="22">
         <v>1200</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="33">
         <v>10.85</v>
       </c>
     </row>
@@ -19600,15 +19559,15 @@
       <c r="E38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="30">
         <v>48</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="19">
         <v>10</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="34"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="32"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2">
@@ -19626,19 +19585,19 @@
       <c r="E39" s="3">
         <v>5.29</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="30">
         <v>54</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="19">
         <v>10</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="19">
         <v>14.8</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="18">
         <v>770</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="31">
         <v>10.7104</v>
       </c>
     </row>
@@ -19658,15 +19617,15 @@
       <c r="E40" s="3">
         <v>10.076000000000001</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="30">
         <v>74</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="19">
         <v>10</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="34"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="32"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2">
@@ -19684,15 +19643,15 @@
       <c r="E41" s="3">
         <v>15.102399999999999</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="30">
         <v>84</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="19">
         <v>10</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="34"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2">
@@ -19710,15 +19669,15 @@
       <c r="E42" s="3">
         <v>20.518999999999998</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="30">
         <v>90</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="19">
         <v>10</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="34"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="32"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2">
@@ -19736,15 +19695,15 @@
       <c r="E43" s="3">
         <v>25.838000000000001</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="30">
         <v>100</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="19">
         <v>10</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="34"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2">
@@ -19762,19 +19721,19 @@
       <c r="E44" s="3">
         <v>29.98</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="30">
         <v>0</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="19">
         <v>15</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="19">
         <v>92.037499999999994</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="18">
         <v>3274.375</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="31">
         <v>15.12</v>
       </c>
     </row>
@@ -19788,19 +19747,19 @@
       <c r="C45" s="9"/>
       <c r="D45" s="15"/>
       <c r="E45" s="9"/>
-      <c r="G45" s="32">
+      <c r="G45" s="30">
         <v>5</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="19">
         <v>15</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="19">
         <v>88.9</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="18">
         <v>3145.3330000000001</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="31">
         <v>15.59</v>
       </c>
     </row>
@@ -19814,19 +19773,19 @@
       <c r="C46" s="9"/>
       <c r="D46" s="15"/>
       <c r="E46" s="9"/>
-      <c r="G46" s="32">
+      <c r="G46" s="30">
         <v>10</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="19">
         <v>15</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="19">
         <v>79.900000000000006</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="18">
         <v>2854</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="31">
         <v>15.05</v>
       </c>
     </row>
@@ -19846,19 +19805,19 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="30">
         <v>15</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="19">
         <v>15</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="19">
         <v>72.599999999999994</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="18">
         <v>2576.33</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="31">
         <v>15.102399999999999</v>
       </c>
     </row>
@@ -19878,19 +19837,19 @@
       <c r="E48" s="3">
         <v>4.952</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="30">
         <v>20</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="19">
         <v>15</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="19">
         <v>64.900000000000006</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="18">
         <v>2284.33</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="31">
         <v>15.102399999999999</v>
       </c>
     </row>
@@ -19910,19 +19869,19 @@
       <c r="E49" s="3">
         <v>10.17</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="30">
         <v>25</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="19">
         <v>15</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="19">
         <v>57.3</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="18">
         <v>2002</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="31">
         <v>15.102399999999999</v>
       </c>
     </row>
@@ -19942,19 +19901,19 @@
       <c r="E50" s="3">
         <v>15.102399999999999</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="30">
         <v>30</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="19">
         <v>15</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="19">
         <v>48.23</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="18">
         <v>1652.6669999999999</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="31">
         <v>15.297599999999999</v>
       </c>
     </row>
@@ -19974,19 +19933,19 @@
       <c r="E51" s="3">
         <v>20.128</v>
       </c>
-      <c r="G51" s="32">
+      <c r="G51" s="30">
         <v>35</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="19">
         <v>15</v>
       </c>
-      <c r="I51" s="25">
+      <c r="I51" s="23">
         <v>40.6</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="22">
         <v>1415</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="33">
         <v>15.2</v>
       </c>
     </row>
@@ -20006,19 +19965,19 @@
       <c r="E52" s="3">
         <v>24.911000000000001</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="30">
         <v>48</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="19">
         <v>15</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="19">
         <v>12.2</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="18">
         <v>813</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="31">
         <v>15.102399999999999</v>
       </c>
     </row>
@@ -20038,15 +19997,15 @@
       <c r="E53" s="3">
         <v>30.425599999999999</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="30">
         <v>54</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="19">
         <v>15</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="34"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2">
@@ -20058,15 +20017,15 @@
       <c r="C54" s="10"/>
       <c r="D54" s="16"/>
       <c r="E54" s="10"/>
-      <c r="G54" s="32">
+      <c r="G54" s="30">
         <v>74</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="19">
         <v>15</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="34"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="32"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2">
@@ -20078,15 +20037,15 @@
       <c r="C55" s="10"/>
       <c r="D55" s="16"/>
       <c r="E55" s="10"/>
-      <c r="G55" s="32">
+      <c r="G55" s="30">
         <v>84</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="19">
         <v>15</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="34"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2">
@@ -20104,15 +20063,15 @@
       <c r="E56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="30">
         <v>90</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="19">
         <v>15</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="34"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="32"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2">
@@ -20130,15 +20089,15 @@
       <c r="E57" s="3">
         <v>5.1959999999999997</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="30">
         <v>100</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="19">
         <v>15</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="34"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2">
@@ -20156,19 +20115,19 @@
       <c r="E58" s="3">
         <v>10.1248</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="30">
         <v>0</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="19">
         <v>20</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="19">
         <v>144.36600000000001</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="18">
         <v>3873.33</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="31">
         <v>20.66</v>
       </c>
     </row>
@@ -20188,19 +20147,19 @@
       <c r="E59" s="3">
         <v>15.297599999999999</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="30">
         <v>5</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="19">
         <v>20</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="19">
         <v>129.9</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="18">
         <v>3619.66</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="31">
         <v>20.225999999999999</v>
       </c>
     </row>
@@ -20220,19 +20179,19 @@
       <c r="E60" s="3">
         <v>20.51</v>
       </c>
-      <c r="G60" s="32">
+      <c r="G60" s="30">
         <v>10</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="19">
         <v>20</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="19">
         <v>123.76600000000001</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="18">
         <v>3346.6669999999999</v>
       </c>
-      <c r="K60" s="33">
+      <c r="K60" s="31">
         <v>20.5</v>
       </c>
     </row>
@@ -20252,19 +20211,19 @@
       <c r="E61" s="3">
         <v>25.056999999999999</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="30">
         <v>15</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="19">
         <v>20</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="19">
         <v>113.4</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="18">
         <v>3041</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="31">
         <v>21.519200000000001</v>
       </c>
     </row>
@@ -20284,19 +20243,19 @@
       <c r="E62" s="5">
         <v>29.6</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="30">
         <v>20</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="19">
         <v>20</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="19">
         <v>99.1</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="18">
         <v>2651</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="31">
         <v>20.518999999999998</v>
       </c>
     </row>
@@ -20310,19 +20269,19 @@
       <c r="C63" s="9"/>
       <c r="D63" s="15"/>
       <c r="E63" s="9"/>
-      <c r="G63" s="32">
+      <c r="G63" s="30">
         <v>25</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="19">
         <v>20</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="19">
         <v>83.996600000000001</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="18">
         <v>2310.33</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="31">
         <v>20.128</v>
       </c>
     </row>
@@ -20336,19 +20295,19 @@
       <c r="C64" s="9"/>
       <c r="D64" s="15"/>
       <c r="E64" s="9"/>
-      <c r="G64" s="32">
+      <c r="G64" s="30">
         <v>30</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="19">
         <v>20</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="19">
         <v>77.5</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="18">
         <v>2033</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="31">
         <v>20.51</v>
       </c>
     </row>
@@ -20368,19 +20327,19 @@
       <c r="E65" s="3">
         <v>0</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="30">
         <v>35</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="19">
         <v>20</v>
       </c>
-      <c r="I65" s="25">
+      <c r="I65" s="23">
         <v>66.7</v>
       </c>
-      <c r="J65" s="24">
+      <c r="J65" s="22">
         <v>1693</v>
       </c>
-      <c r="K65" s="35">
+      <c r="K65" s="33">
         <v>20.812000000000001</v>
       </c>
     </row>
@@ -20400,15 +20359,15 @@
       <c r="E66" s="3">
         <v>5.0979999999999999</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="30">
         <v>48</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="19">
         <v>20</v>
       </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="34"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="32"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2">
@@ -20426,15 +20385,15 @@
       <c r="E67" s="5">
         <v>10.85</v>
       </c>
-      <c r="G67" s="32">
+      <c r="G67" s="30">
         <v>54</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="19">
         <v>20</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="34"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2">
@@ -20452,15 +20411,15 @@
       <c r="E68" s="5">
         <v>15.2</v>
       </c>
-      <c r="G68" s="32">
+      <c r="G68" s="30">
         <v>74</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="19">
         <v>20</v>
       </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="34"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="32"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2">
@@ -20478,15 +20437,15 @@
       <c r="E69" s="5">
         <v>20.812000000000001</v>
       </c>
-      <c r="G69" s="32">
+      <c r="G69" s="30">
         <v>84</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="19">
         <v>20</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="34"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2">
@@ -20504,15 +20463,15 @@
       <c r="E70" s="5">
         <v>25.25</v>
       </c>
-      <c r="G70" s="32">
+      <c r="G70" s="30">
         <v>90</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="19">
         <v>20</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="34"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="32"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="2">
@@ -20530,15 +20489,15 @@
       <c r="E71" s="5">
         <v>31.010999999999999</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="30">
         <v>100</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H71" s="19">
         <v>20</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="34"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="32"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="2">
@@ -20556,15 +20515,15 @@
       <c r="E72" s="5">
         <v>35.74</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G72" s="30">
         <v>0</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="19">
         <v>25</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="34"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="32"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2">
@@ -20582,19 +20541,19 @@
       <c r="E73" s="5">
         <v>40.088000000000001</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="30">
         <v>5</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="19">
         <v>25</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="19">
         <v>173.63300000000001</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J73" s="18">
         <v>3968.6669999999999</v>
       </c>
-      <c r="K73" s="33">
+      <c r="K73" s="31">
         <v>24.618400000000001</v>
       </c>
     </row>
@@ -20608,15 +20567,15 @@
       <c r="C74" s="9"/>
       <c r="D74" s="15"/>
       <c r="E74" s="9"/>
-      <c r="G74" s="32">
+      <c r="G74" s="30">
         <v>10</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="19">
         <v>25</v>
       </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="34"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="32"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2">
@@ -20628,19 +20587,19 @@
       <c r="C75" s="9"/>
       <c r="D75" s="15"/>
       <c r="E75" s="9"/>
-      <c r="G75" s="32">
+      <c r="G75" s="30">
         <v>15</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H75" s="19">
         <v>25</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="19">
         <v>148.066</v>
       </c>
-      <c r="J75" s="20">
+      <c r="J75" s="18">
         <v>3352.33</v>
       </c>
-      <c r="K75" s="33">
+      <c r="K75" s="31">
         <v>25.057600000000001</v>
       </c>
     </row>
@@ -20654,19 +20613,19 @@
       <c r="C76" s="9"/>
       <c r="D76" s="15"/>
       <c r="E76" s="9"/>
-      <c r="G76" s="32">
+      <c r="G76" s="30">
         <v>20</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="19">
         <v>25</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="19">
         <v>140.22999999999999</v>
       </c>
-      <c r="J76" s="20">
+      <c r="J76" s="18">
         <v>3011.33</v>
       </c>
-      <c r="K76" s="33">
+      <c r="K76" s="31">
         <v>25.838000000000001</v>
       </c>
     </row>
@@ -20686,19 +20645,19 @@
       <c r="E77" s="3">
         <v>15.102399999999999</v>
       </c>
-      <c r="G77" s="32">
+      <c r="G77" s="30">
         <v>25</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="19">
         <v>25</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="19">
         <v>106.6</v>
       </c>
-      <c r="J77" s="20">
+      <c r="J77" s="18">
         <v>2583</v>
       </c>
-      <c r="K77" s="33">
+      <c r="K77" s="31">
         <v>24.911000000000001</v>
       </c>
     </row>
@@ -20712,19 +20671,19 @@
       <c r="C78" s="9"/>
       <c r="D78" s="15"/>
       <c r="E78" s="9"/>
-      <c r="G78" s="32">
+      <c r="G78" s="30">
         <v>30</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H78" s="19">
         <v>25</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="19">
         <v>102.9</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="18">
         <v>2237</v>
       </c>
-      <c r="K78" s="33">
+      <c r="K78" s="31">
         <v>25.056999999999999</v>
       </c>
     </row>
@@ -20738,19 +20697,19 @@
       <c r="C79" s="9"/>
       <c r="D79" s="15"/>
       <c r="E79" s="9"/>
-      <c r="G79" s="32">
+      <c r="G79" s="30">
         <v>35</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H79" s="19">
         <v>25</v>
       </c>
-      <c r="I79" s="25">
+      <c r="I79" s="23">
         <v>86.8</v>
       </c>
-      <c r="J79" s="24">
+      <c r="J79" s="22">
         <v>1854.66</v>
       </c>
-      <c r="K79" s="35">
+      <c r="K79" s="33">
         <v>25.25</v>
       </c>
     </row>
@@ -20764,15 +20723,15 @@
       <c r="C80" s="9"/>
       <c r="D80" s="15"/>
       <c r="E80" s="9"/>
-      <c r="G80" s="32">
+      <c r="G80" s="30">
         <v>48</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H80" s="19">
         <v>25</v>
       </c>
-      <c r="I80" s="23"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="34"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="32"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="2">
@@ -20784,15 +20743,15 @@
       <c r="C81" s="9"/>
       <c r="D81" s="15"/>
       <c r="E81" s="9"/>
-      <c r="G81" s="32">
+      <c r="G81" s="30">
         <v>54</v>
       </c>
-      <c r="H81" s="21">
+      <c r="H81" s="19">
         <v>25</v>
       </c>
-      <c r="I81" s="23"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="34"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="32"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="2">
@@ -20804,15 +20763,15 @@
       <c r="C82" s="9"/>
       <c r="D82" s="15"/>
       <c r="E82" s="9"/>
-      <c r="G82" s="32">
+      <c r="G82" s="30">
         <v>74</v>
       </c>
-      <c r="H82" s="21">
+      <c r="H82" s="19">
         <v>25</v>
       </c>
-      <c r="I82" s="23"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="34"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="32"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2">
@@ -20824,15 +20783,15 @@
       <c r="C83" s="9"/>
       <c r="D83" s="15"/>
       <c r="E83" s="9"/>
-      <c r="G83" s="32">
+      <c r="G83" s="30">
         <v>84</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H83" s="19">
         <v>25</v>
       </c>
-      <c r="I83" s="23"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="34"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="2">
@@ -20844,15 +20803,15 @@
       <c r="C84" s="9"/>
       <c r="D84" s="15"/>
       <c r="E84" s="9"/>
-      <c r="G84" s="32">
+      <c r="G84" s="30">
         <v>90</v>
       </c>
-      <c r="H84" s="21">
+      <c r="H84" s="19">
         <v>25</v>
       </c>
-      <c r="I84" s="23"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="34"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="32"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="2">
@@ -20870,15 +20829,15 @@
       <c r="E85" s="3">
         <v>10.7104</v>
       </c>
-      <c r="G85" s="32">
+      <c r="G85" s="30">
         <v>100</v>
       </c>
-      <c r="H85" s="21">
+      <c r="H85" s="19">
         <v>25</v>
       </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="34"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="32"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="2">
@@ -20890,15 +20849,15 @@
       <c r="C86" s="9"/>
       <c r="D86" s="15"/>
       <c r="E86" s="9"/>
-      <c r="G86" s="32">
+      <c r="G86" s="30">
         <v>0</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="19">
         <v>30</v>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="34"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="32"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="2">
@@ -20910,15 +20869,15 @@
       <c r="C87" s="9"/>
       <c r="D87" s="15"/>
       <c r="E87" s="9"/>
-      <c r="G87" s="32">
+      <c r="G87" s="30">
         <v>5</v>
       </c>
-      <c r="H87" s="21">
+      <c r="H87" s="19">
         <v>30</v>
       </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="34"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="32"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2">
@@ -20930,15 +20889,15 @@
       <c r="C88" s="9"/>
       <c r="D88" s="15"/>
       <c r="E88" s="9"/>
-      <c r="G88" s="32">
+      <c r="G88" s="30">
         <v>10</v>
       </c>
-      <c r="H88" s="21">
+      <c r="H88" s="19">
         <v>30</v>
       </c>
-      <c r="I88" s="23"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="34"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="32"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2">
@@ -20950,15 +20909,15 @@
       <c r="C89" s="9"/>
       <c r="D89" s="15"/>
       <c r="E89" s="9"/>
-      <c r="G89" s="32">
+      <c r="G89" s="30">
         <v>15</v>
       </c>
-      <c r="H89" s="21">
+      <c r="H89" s="19">
         <v>30</v>
       </c>
-      <c r="I89" s="23"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="34"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="32"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="2">
@@ -20970,19 +20929,19 @@
       <c r="C90" s="9"/>
       <c r="D90" s="15"/>
       <c r="E90" s="9"/>
-      <c r="G90" s="32">
+      <c r="G90" s="30">
         <v>20</v>
       </c>
-      <c r="H90" s="21">
+      <c r="H90" s="19">
         <v>30</v>
       </c>
-      <c r="I90" s="21">
+      <c r="I90" s="19">
         <v>175.7</v>
       </c>
-      <c r="J90" s="20">
+      <c r="J90" s="18">
         <v>3271.33</v>
       </c>
-      <c r="K90" s="33">
+      <c r="K90" s="31">
         <v>29.98</v>
       </c>
     </row>
@@ -20996,19 +20955,19 @@
       <c r="C91" s="9"/>
       <c r="D91" s="15"/>
       <c r="E91" s="9"/>
-      <c r="G91" s="32">
+      <c r="G91" s="30">
         <v>25</v>
       </c>
-      <c r="H91" s="21">
+      <c r="H91" s="19">
         <v>30</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="19">
         <v>151.1</v>
       </c>
-      <c r="J91" s="20">
+      <c r="J91" s="18">
         <v>2866.6669999999999</v>
       </c>
-      <c r="K91" s="33">
+      <c r="K91" s="31">
         <v>30.425599999999999</v>
       </c>
     </row>
@@ -21022,19 +20981,19 @@
       <c r="C92" s="9"/>
       <c r="D92" s="15"/>
       <c r="E92" s="9"/>
-      <c r="G92" s="32">
+      <c r="G92" s="30">
         <v>30</v>
       </c>
-      <c r="H92" s="21">
+      <c r="H92" s="19">
         <v>30</v>
       </c>
-      <c r="I92" s="25">
+      <c r="I92" s="23">
         <v>130.9</v>
       </c>
-      <c r="J92" s="24">
+      <c r="J92" s="22">
         <v>2438</v>
       </c>
-      <c r="K92" s="35">
+      <c r="K92" s="33">
         <v>29.6</v>
       </c>
     </row>
@@ -21054,19 +21013,19 @@
       <c r="E93" s="3">
         <v>5.44</v>
       </c>
-      <c r="G93" s="32">
+      <c r="G93" s="30">
         <v>35</v>
       </c>
-      <c r="H93" s="21">
+      <c r="H93" s="19">
         <v>30</v>
       </c>
-      <c r="I93" s="25">
+      <c r="I93" s="23">
         <v>114.77</v>
       </c>
-      <c r="J93" s="24">
+      <c r="J93" s="22">
         <v>2026.67</v>
       </c>
-      <c r="K93" s="35">
+      <c r="K93" s="33">
         <v>31.010999999999999</v>
       </c>
     </row>
@@ -21080,15 +21039,15 @@
       <c r="C94" s="9"/>
       <c r="D94" s="15"/>
       <c r="E94" s="9"/>
-      <c r="G94" s="32">
+      <c r="G94" s="30">
         <v>48</v>
       </c>
-      <c r="H94" s="21">
+      <c r="H94" s="19">
         <v>30</v>
       </c>
-      <c r="I94" s="23"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="34"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="32"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="2">
@@ -21100,15 +21059,15 @@
       <c r="C95" s="9"/>
       <c r="D95" s="15"/>
       <c r="E95" s="9"/>
-      <c r="G95" s="32">
+      <c r="G95" s="30">
         <v>54</v>
       </c>
-      <c r="H95" s="21">
+      <c r="H95" s="19">
         <v>30</v>
       </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="34"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="32"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="2">
@@ -21120,15 +21079,15 @@
       <c r="C96" s="9"/>
       <c r="D96" s="15"/>
       <c r="E96" s="9"/>
-      <c r="G96" s="32">
+      <c r="G96" s="30">
         <v>74</v>
       </c>
-      <c r="H96" s="21">
+      <c r="H96" s="19">
         <v>30</v>
       </c>
-      <c r="I96" s="23"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="34"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="32"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="2">
@@ -21140,15 +21099,15 @@
       <c r="C97" s="9"/>
       <c r="D97" s="15"/>
       <c r="E97" s="9"/>
-      <c r="G97" s="32">
+      <c r="G97" s="30">
         <v>84</v>
       </c>
-      <c r="H97" s="21">
+      <c r="H97" s="19">
         <v>30</v>
       </c>
-      <c r="I97" s="23"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="34"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="32"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="2">
@@ -21160,15 +21119,15 @@
       <c r="C98" s="9"/>
       <c r="D98" s="15"/>
       <c r="E98" s="9"/>
-      <c r="G98" s="32">
+      <c r="G98" s="30">
         <v>90</v>
       </c>
-      <c r="H98" s="21">
+      <c r="H98" s="19">
         <v>30</v>
       </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="34"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="32"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="2">
@@ -21180,15 +21139,15 @@
       <c r="C99" s="9"/>
       <c r="D99" s="15"/>
       <c r="E99" s="9"/>
-      <c r="G99" s="32">
+      <c r="G99" s="30">
         <v>100</v>
       </c>
-      <c r="H99" s="21">
+      <c r="H99" s="19">
         <v>30</v>
       </c>
-      <c r="I99" s="23"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="34"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="32"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="2">
@@ -21200,15 +21159,15 @@
       <c r="C100" s="9"/>
       <c r="D100" s="15"/>
       <c r="E100" s="9"/>
-      <c r="G100" s="32">
+      <c r="G100" s="30">
         <v>0</v>
       </c>
-      <c r="H100" s="21">
+      <c r="H100" s="19">
         <v>35</v>
       </c>
-      <c r="I100" s="23"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="34"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="32"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="2">
@@ -21220,15 +21179,15 @@
       <c r="C101" s="9"/>
       <c r="D101" s="15"/>
       <c r="E101" s="9"/>
-      <c r="G101" s="32">
+      <c r="G101" s="30">
         <v>5</v>
       </c>
-      <c r="H101" s="21">
+      <c r="H101" s="19">
         <v>35</v>
       </c>
-      <c r="I101" s="23"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="34"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="32"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="2">
@@ -21246,15 +21205,15 @@
       <c r="E102" s="3">
         <v>5.44</v>
       </c>
-      <c r="G102" s="32">
+      <c r="G102" s="30">
         <v>10</v>
       </c>
-      <c r="H102" s="21">
+      <c r="H102" s="19">
         <v>35</v>
       </c>
-      <c r="I102" s="23"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="34"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="32"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="2">
@@ -21266,15 +21225,15 @@
       <c r="C103" s="9"/>
       <c r="D103" s="15"/>
       <c r="E103" s="9"/>
-      <c r="G103" s="32">
+      <c r="G103" s="30">
         <v>15</v>
       </c>
-      <c r="H103" s="21">
+      <c r="H103" s="19">
         <v>35</v>
       </c>
-      <c r="I103" s="23"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="34"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="32"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="2">
@@ -21286,15 +21245,15 @@
       <c r="C104" s="9"/>
       <c r="D104" s="15"/>
       <c r="E104" s="9"/>
-      <c r="G104" s="32">
+      <c r="G104" s="30">
         <v>20</v>
       </c>
-      <c r="H104" s="21">
+      <c r="H104" s="19">
         <v>35</v>
       </c>
-      <c r="I104" s="23"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="34"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="32"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="2">
@@ -21306,15 +21265,15 @@
       <c r="C105" s="9"/>
       <c r="D105" s="15"/>
       <c r="E105" s="9"/>
-      <c r="G105" s="32">
+      <c r="G105" s="30">
         <v>25</v>
       </c>
-      <c r="H105" s="21">
+      <c r="H105" s="19">
         <v>35</v>
       </c>
-      <c r="I105" s="27"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="36"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="34"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2">
@@ -21326,15 +21285,15 @@
       <c r="C106" s="9"/>
       <c r="D106" s="15"/>
       <c r="E106" s="9"/>
-      <c r="G106" s="32">
+      <c r="G106" s="30">
         <v>30</v>
       </c>
-      <c r="H106" s="21">
+      <c r="H106" s="19">
         <v>35</v>
       </c>
-      <c r="I106" s="23"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="34"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="32"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="2">
@@ -21346,19 +21305,19 @@
       <c r="C107" s="9"/>
       <c r="D107" s="15"/>
       <c r="E107" s="9"/>
-      <c r="G107" s="32">
+      <c r="G107" s="30">
         <v>35</v>
       </c>
-      <c r="H107" s="21">
+      <c r="H107" s="19">
         <v>35</v>
       </c>
-      <c r="I107" s="25">
+      <c r="I107" s="23">
         <v>144.4</v>
       </c>
-      <c r="J107" s="24">
+      <c r="J107" s="22">
         <v>2661.75</v>
       </c>
-      <c r="K107" s="35">
+      <c r="K107" s="33">
         <v>35.74</v>
       </c>
     </row>
@@ -21372,15 +21331,15 @@
       <c r="C108" s="9"/>
       <c r="D108" s="15"/>
       <c r="E108" s="9"/>
-      <c r="G108" s="32">
+      <c r="G108" s="30">
         <v>48</v>
       </c>
-      <c r="H108" s="21">
+      <c r="H108" s="19">
         <v>35</v>
       </c>
-      <c r="I108" s="23"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="34"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="32"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="2">
@@ -21392,15 +21351,15 @@
       <c r="C109" s="9"/>
       <c r="D109" s="15"/>
       <c r="E109" s="9"/>
-      <c r="G109" s="32">
+      <c r="G109" s="30">
         <v>54</v>
       </c>
-      <c r="H109" s="21">
+      <c r="H109" s="19">
         <v>35</v>
       </c>
-      <c r="I109" s="23"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="34"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="32"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2">
@@ -21412,15 +21371,15 @@
       <c r="C110" s="9"/>
       <c r="D110" s="15"/>
       <c r="E110" s="9"/>
-      <c r="G110" s="32">
+      <c r="G110" s="30">
         <v>74</v>
       </c>
-      <c r="H110" s="21">
+      <c r="H110" s="19">
         <v>35</v>
       </c>
-      <c r="I110" s="23"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="34"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="32"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="2">
@@ -21438,15 +21397,15 @@
       <c r="E111" s="3">
         <v>5.1471999999999998</v>
       </c>
-      <c r="G111" s="32">
+      <c r="G111" s="30">
         <v>84</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H111" s="19">
         <v>35</v>
       </c>
-      <c r="I111" s="23"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="34"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="32"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2">
@@ -21458,15 +21417,15 @@
       <c r="C112" s="9"/>
       <c r="D112" s="15"/>
       <c r="E112" s="9"/>
-      <c r="G112" s="32">
+      <c r="G112" s="30">
         <v>90</v>
       </c>
-      <c r="H112" s="21">
+      <c r="H112" s="19">
         <v>35</v>
       </c>
-      <c r="I112" s="23"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="34"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="32"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2">
@@ -21478,15 +21437,15 @@
       <c r="C113" s="9"/>
       <c r="D113" s="15"/>
       <c r="E113" s="9"/>
-      <c r="G113" s="32">
+      <c r="G113" s="30">
         <v>100</v>
       </c>
-      <c r="H113" s="21">
+      <c r="H113" s="19">
         <v>35</v>
       </c>
-      <c r="I113" s="23"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="34"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="32"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="2">
@@ -21498,15 +21457,15 @@
       <c r="C114" s="9"/>
       <c r="D114" s="15"/>
       <c r="E114" s="9"/>
-      <c r="G114" s="32">
+      <c r="G114" s="30">
         <v>0</v>
       </c>
-      <c r="H114" s="21">
+      <c r="H114" s="19">
         <v>40</v>
       </c>
-      <c r="I114" s="23"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="34"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="32"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="2">
@@ -21518,15 +21477,15 @@
       <c r="C115" s="9"/>
       <c r="D115" s="15"/>
       <c r="E115" s="9"/>
-      <c r="G115" s="32">
+      <c r="G115" s="30">
         <v>5</v>
       </c>
-      <c r="H115" s="21">
+      <c r="H115" s="19">
         <v>40</v>
       </c>
-      <c r="I115" s="23"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="34"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="32"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2">
@@ -21538,15 +21497,15 @@
       <c r="C116" s="9"/>
       <c r="D116" s="15"/>
       <c r="E116" s="9"/>
-      <c r="G116" s="32">
+      <c r="G116" s="30">
         <v>10</v>
       </c>
-      <c r="H116" s="21">
+      <c r="H116" s="19">
         <v>40</v>
       </c>
-      <c r="I116" s="23"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="34"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="32"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="2">
@@ -21558,15 +21517,15 @@
       <c r="C117" s="9"/>
       <c r="D117" s="15"/>
       <c r="E117" s="9"/>
-      <c r="G117" s="32">
+      <c r="G117" s="30">
         <v>15</v>
       </c>
-      <c r="H117" s="21">
+      <c r="H117" s="19">
         <v>40</v>
       </c>
-      <c r="I117" s="23"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="34"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="32"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2">
@@ -21578,15 +21537,15 @@
       <c r="C118" s="9"/>
       <c r="D118" s="15"/>
       <c r="E118" s="9"/>
-      <c r="G118" s="32">
+      <c r="G118" s="30">
         <v>20</v>
       </c>
-      <c r="H118" s="21">
+      <c r="H118" s="19">
         <v>40</v>
       </c>
-      <c r="I118" s="23"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="34"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="32"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="2">
@@ -21598,15 +21557,15 @@
       <c r="C119" s="9"/>
       <c r="D119" s="15"/>
       <c r="E119" s="9"/>
-      <c r="G119" s="32">
+      <c r="G119" s="30">
         <v>25</v>
       </c>
-      <c r="H119" s="21">
+      <c r="H119" s="19">
         <v>40</v>
       </c>
-      <c r="I119" s="27"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="36"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="34"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="2">
@@ -21624,15 +21583,15 @@
       <c r="E120" s="3">
         <v>5.0007999999999999</v>
       </c>
-      <c r="G120" s="32">
+      <c r="G120" s="30">
         <v>30</v>
       </c>
-      <c r="H120" s="21">
+      <c r="H120" s="19">
         <v>40</v>
       </c>
-      <c r="I120" s="23"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="34"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="32"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="2">
@@ -21644,19 +21603,19 @@
       <c r="C121" s="9"/>
       <c r="D121" s="15"/>
       <c r="E121" s="9"/>
-      <c r="G121" s="32">
+      <c r="G121" s="30">
         <v>35</v>
       </c>
-      <c r="H121" s="21">
+      <c r="H121" s="19">
         <v>40</v>
       </c>
-      <c r="I121" s="25">
+      <c r="I121" s="23">
         <v>171.03299999999999</v>
       </c>
-      <c r="J121" s="24">
+      <c r="J121" s="22">
         <v>2361.33</v>
       </c>
-      <c r="K121" s="35">
+      <c r="K121" s="33">
         <v>40.088000000000001</v>
       </c>
     </row>
@@ -21670,15 +21629,15 @@
       <c r="C122" s="9"/>
       <c r="D122" s="15"/>
       <c r="E122" s="9"/>
-      <c r="G122" s="32">
+      <c r="G122" s="30">
         <v>48</v>
       </c>
-      <c r="H122" s="21">
+      <c r="H122" s="19">
         <v>40</v>
       </c>
-      <c r="I122" s="23"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="34"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="32"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="2">
@@ -21690,15 +21649,15 @@
       <c r="C123" s="9"/>
       <c r="D123" s="15"/>
       <c r="E123" s="9"/>
-      <c r="G123" s="32">
+      <c r="G123" s="30">
         <v>54</v>
       </c>
-      <c r="H123" s="21">
+      <c r="H123" s="19">
         <v>40</v>
       </c>
-      <c r="I123" s="23"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="34"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="32"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="2">
@@ -21710,15 +21669,15 @@
       <c r="C124" s="9"/>
       <c r="D124" s="15"/>
       <c r="E124" s="9"/>
-      <c r="G124" s="32">
+      <c r="G124" s="30">
         <v>74</v>
       </c>
-      <c r="H124" s="21">
+      <c r="H124" s="19">
         <v>40</v>
       </c>
-      <c r="I124" s="23"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="34"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="32"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="2">
@@ -21730,15 +21689,15 @@
       <c r="C125" s="9"/>
       <c r="D125" s="15"/>
       <c r="E125" s="9"/>
-      <c r="G125" s="32">
+      <c r="G125" s="30">
         <v>84</v>
       </c>
-      <c r="H125" s="21">
+      <c r="H125" s="19">
         <v>40</v>
       </c>
-      <c r="I125" s="23"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="34"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="32"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="2">
@@ -21750,15 +21709,15 @@
       <c r="C126" s="9"/>
       <c r="D126" s="15"/>
       <c r="E126" s="9"/>
-      <c r="G126" s="32">
+      <c r="G126" s="30">
         <v>90</v>
       </c>
-      <c r="H126" s="21">
+      <c r="H126" s="19">
         <v>40</v>
       </c>
-      <c r="I126" s="23"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="34"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="32"/>
     </row>
     <row r="127" spans="1:11" ht="16.5" thickBot="1">
       <c r="A127" s="2">
@@ -21770,15 +21729,15 @@
       <c r="C127" s="9"/>
       <c r="D127" s="15"/>
       <c r="E127" s="9"/>
-      <c r="G127" s="37">
+      <c r="G127" s="35">
         <v>100</v>
       </c>
-      <c r="H127" s="49">
+      <c r="H127" s="47">
         <v>40</v>
       </c>
-      <c r="I127" s="40"/>
-      <c r="J127" s="50"/>
-      <c r="K127" s="41"/>
+      <c r="I127" s="38"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="39"/>
     </row>
   </sheetData>
   <sortState ref="G3:K128">
@@ -21795,7 +21754,7 @@
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -23600,13 +23559,13 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
@@ -26977,1823 +26936,1823 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="32">
+      <c r="A2" s="30">
         <v>0</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>0</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>0</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="31">
         <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32">
+      <c r="A3" s="30">
         <v>5</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>0</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>0.14330000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32">
+      <c r="A4" s="30">
         <v>10</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>15</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>20</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32">
+      <c r="A7" s="30">
         <v>25</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>0</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32">
+      <c r="A8" s="30">
         <v>30</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>0</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <v>0.18571399999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>35</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>0</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>0</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>0.130769230769231</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>74</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>0</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="32">
+      <c r="A11" s="30">
         <v>84</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>0</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>90</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>0</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>100</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>0</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>0</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>250</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>257.2</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>2.54</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <v>5</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>250</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>236.7</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>2.3109999999999999</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>10</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>250</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>239.52</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>2.3420000000000001</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>1.804</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>15</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>250</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>240.136</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>2.3389000000000002</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>1.804</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>20</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>250</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>243.34780000000001</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>2.2250000000000001</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>25</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>250</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>242.79</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>2.3412000000000002</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <v>1.3416669999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>30</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="17">
         <v>250</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>242.07320000000001</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>2.3290000000000002</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <v>1.7090000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>35</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>250</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>258.85074626865702</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>2.4267820895522498</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="31">
         <v>1.82985074626865</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="32">
+      <c r="A22" s="30">
         <v>74</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <v>250</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="34"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="32">
+      <c r="A23" s="30">
         <v>84</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="17">
         <v>250</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>90</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="17">
         <v>250</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="34"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="32">
+      <c r="A25" s="30">
         <v>100</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="17">
         <v>250</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>229</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>2.6583999999999999</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="31">
         <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>0</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="17">
         <v>500</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>509.66</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>2.6989999999999998</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="31">
         <v>3.51</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="32">
+      <c r="A27" s="30">
         <v>5</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="17">
         <v>500</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>509.8</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>2.52</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>2.8849999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>10</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="17">
         <v>500</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>486.45</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>2.4990000000000001</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="31">
         <v>2.9540000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>15</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="17">
         <v>500</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>492.20800000000003</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>2.5181</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="31">
         <v>3.1579999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>20</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="17">
         <v>500</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>492.6</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>2.3363200000000002</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="31">
         <v>3.11</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <v>25</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="17">
         <v>500</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>517.5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <v>2.3656000000000001</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="31">
         <v>3.4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>30</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="17">
         <v>500</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>490.21050000000002</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <v>2.3780000000000001</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="31">
         <v>2.92</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <v>35</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="17">
         <v>500</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>492.32</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>2.54</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="31">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <v>74</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="17">
         <v>500</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="34"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="32">
+      <c r="A35" s="30">
         <v>84</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="17">
         <v>500</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="34"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="32">
+      <c r="A36" s="30">
         <v>90</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>500</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="34"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="32">
+      <c r="A37" s="30">
         <v>100</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="17">
         <v>500</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="17">
         <v>491</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>3.3904000000000001</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="31">
         <v>3.7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="32">
+      <c r="A38" s="30">
         <v>0</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="17">
         <v>1000</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <v>980.23</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>3.02</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="32">
+      <c r="A39" s="30">
         <v>5</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="17">
         <v>1000</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <v>990.8</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <v>2.9355000000000002</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="31">
         <v>7.8250000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="32">
+      <c r="A40" s="30">
         <v>10</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="17">
         <v>1000</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>995.06</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="19">
         <v>2.9180000000000001</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>7.77</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="32">
+      <c r="A41" s="30">
         <v>15</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="17">
         <v>1000</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>992.875</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <v>2.9512</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="31">
         <v>7.625</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="32">
+      <c r="A42" s="30">
         <v>20</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="17">
         <v>1000</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="18">
         <v>979.06</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="19">
         <v>3.0569999999999999</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="31">
         <v>7.8339999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="32">
+      <c r="A43" s="30">
         <v>25</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="17">
         <v>1000</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>1031.5</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="19">
         <v>4.2478860000000003</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="31">
         <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="32">
+      <c r="A44" s="30">
         <v>30</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="17">
         <v>1000</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>1001.929</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="19">
         <v>5.4080000000000004</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="31">
         <v>12.077999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="32">
+      <c r="A45" s="30">
         <v>35</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="17">
         <v>1000</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <v>968.23800000000006</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="23">
         <v>7.5519999999999996</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="33">
         <v>15.454000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="32">
+      <c r="A46" s="30">
         <v>74</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="17">
         <v>1000</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="34"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="32">
+      <c r="A47" s="30">
         <v>84</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="17">
         <v>1000</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="34"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>90</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="17">
         <v>1000</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="34"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="32">
+      <c r="A49" s="30">
         <v>100</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="17">
         <v>1000</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="17">
         <v>983</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="19">
         <v>5.5864000000000003</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="31">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="32">
+      <c r="A50" s="30">
         <v>0</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="17">
         <v>1500</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>1554.66</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="19">
         <v>3.79</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="31">
         <v>15.3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="32">
+      <c r="A51" s="30">
         <v>5</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="17">
         <v>1500</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>1509.7829999999999</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="19">
         <v>4.0960000000000001</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="31">
         <v>14.54</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="32">
+      <c r="A52" s="30">
         <v>10</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="17">
         <v>1500</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>1498.25</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="19">
         <v>4.3419999999999996</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="31">
         <v>15.125</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="32">
+      <c r="A53" s="30">
         <v>15</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="17">
         <v>1500</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>1512.14</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="19">
         <v>5.3563000000000001</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="31">
         <v>12.6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>20</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="17">
         <v>1500</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>1490.088</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="19">
         <v>6.3657000000000004</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="31">
         <v>19.114699999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="32">
+      <c r="A55" s="30">
         <v>25</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="17">
         <v>1500</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>1522.75</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="19">
         <v>8.8437999999999999</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="31">
         <v>20.3125</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="32">
+      <c r="A56" s="30">
         <v>30</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="17">
         <v>1500</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>1479.675</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="19">
         <v>11.537000000000001</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="31">
         <v>33.58</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="32">
+      <c r="A57" s="30">
         <v>35</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="17">
         <v>1500</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="22">
         <v>1525.6</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="23">
         <v>17.526</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="33">
         <v>49.067999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="32">
+      <c r="A58" s="30">
         <v>74</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="17">
         <v>1500</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="17">
         <v>1463</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="19">
         <v>5.44</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="31">
         <v>14.1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="32">
+      <c r="A59" s="30">
         <v>84</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="17">
         <v>1500</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="34"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="32">
+      <c r="A60" s="30">
         <v>90</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="17">
         <v>1500</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="17">
         <v>1565</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="19">
         <v>5.44</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="31">
         <v>21.8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="32">
+      <c r="A61" s="30">
         <v>100</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="17">
         <v>1500</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="17">
         <v>1551</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="19">
         <v>5.2935999999999996</v>
       </c>
-      <c r="E61" s="33">
+      <c r="E61" s="31">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="32">
+      <c r="A62" s="30">
         <v>0</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="17">
         <v>2000</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="18">
         <v>1986.19</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="19">
         <v>5.9</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="31">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="32">
+      <c r="A63" s="30">
         <v>5</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="17">
         <v>2000</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>2011.86</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="19">
         <v>6.7088000000000001</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="31">
         <v>28.28</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="32">
+      <c r="A64" s="30">
         <v>10</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="17">
         <v>2000</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="18">
         <v>2006</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="19">
         <v>7.5945</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="31">
         <v>29.067900000000002</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="32">
+      <c r="A65" s="30">
         <v>15</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="17">
         <v>2000</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="18">
         <v>1991.829</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="19">
         <v>8.9670000000000005</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="31">
         <v>35.548000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="32">
+      <c r="A66" s="30">
         <v>20</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="17">
         <v>2000</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="18">
         <v>1987.675</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="19">
         <v>11.343579999999999</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E66" s="31">
         <v>43.967500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="32">
+      <c r="A67" s="30">
         <v>25</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="17">
         <v>2000</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="18">
         <v>2006.69</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="19">
         <v>15.273</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E67" s="31">
         <v>55.954000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="32">
+      <c r="A68" s="30">
         <v>30</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="17">
         <v>2000</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="18">
         <v>1945.3330000000001</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="19">
         <v>18.92971</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="31">
         <v>68.576189999999997</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="32">
+      <c r="A69" s="30">
         <v>35</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="17">
         <v>2000</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="22">
         <v>1992.4905699999999</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="23">
         <v>30.08492</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="33">
         <v>108.6528</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="32">
+      <c r="A70" s="30">
         <v>74</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="17">
         <v>2000</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="34"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="32">
+      <c r="A71" s="30">
         <v>84</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="17">
         <v>2000</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="17">
         <v>1185</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="19">
         <v>4.0491999999999999</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E71" s="31">
         <v>12.3</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="32">
+      <c r="A72" s="30">
         <v>90</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="17">
         <v>2000</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="17">
         <v>1859</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="19">
         <v>5.1471999999999998</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="31">
         <v>20.2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="32">
+      <c r="A73" s="30">
         <v>100</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="17">
         <v>2000</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="17">
         <v>1848</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="19">
         <v>5.44</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="31">
         <v>22.2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="32">
+      <c r="A74" s="30">
         <v>0</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="17">
         <v>2500</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="18">
         <v>2467.79</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="19">
         <v>8.75</v>
       </c>
-      <c r="E74" s="33">
+      <c r="E74" s="31">
         <v>43.12</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="32">
+      <c r="A75" s="30">
         <v>5</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="17">
         <v>2500</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="18">
         <v>2506.2249999999999</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="19">
         <v>10.143000000000001</v>
       </c>
-      <c r="E75" s="33">
+      <c r="E75" s="31">
         <v>47.45</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="32">
+      <c r="A76" s="30">
         <v>10</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="17">
         <v>2500</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="18">
         <v>2489.8000000000002</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="19">
         <v>11.46</v>
       </c>
-      <c r="E76" s="33">
+      <c r="E76" s="31">
         <v>48.5</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="32">
+      <c r="A77" s="30">
         <v>15</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="17">
         <v>2500</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="18">
         <v>2512.46</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="19">
         <v>14.38</v>
       </c>
-      <c r="E77" s="33">
+      <c r="E77" s="31">
         <v>67.646000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="32">
+      <c r="A78" s="30">
         <v>20</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="17">
         <v>2500</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="18">
         <v>2495.33</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="19">
         <v>17.995000000000001</v>
       </c>
-      <c r="E78" s="33">
+      <c r="E78" s="31">
         <v>77.930000000000007</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="32">
+      <c r="A79" s="30">
         <v>25</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="17">
         <v>2500</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="18">
         <v>2463.8000000000002</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="19">
         <v>22.847999999999999</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="31">
         <v>102.22</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="32">
+      <c r="A80" s="30">
         <v>30</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="17">
         <v>2500</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="18">
         <v>2501.3330000000001</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="19">
         <v>31.266999999999999</v>
       </c>
-      <c r="E80" s="33">
+      <c r="E80" s="31">
         <v>141.8458</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="32">
+      <c r="A81" s="30">
         <v>35</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="17">
         <v>2500</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="22">
         <v>2398.35484</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="23">
         <v>42.228900000000003</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="33">
         <v>184.929</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="32">
+      <c r="A82" s="30">
         <v>74</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="17">
         <v>2500</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="34"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="32"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="32">
+      <c r="A83" s="30">
         <v>84</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="17">
         <v>2500</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="34"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="32"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="32">
+      <c r="A84" s="30">
         <v>90</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="17">
         <v>2500</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="34"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="32"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="32">
+      <c r="A85" s="30">
         <v>100</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="17">
         <v>2500</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="34"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="32"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="32">
+      <c r="A86" s="30">
         <v>0</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="17">
         <v>3000</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="18">
         <v>3062.89</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="19">
         <v>13.3</v>
       </c>
-      <c r="E86" s="33">
+      <c r="E86" s="31">
         <v>75.17</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="32">
+      <c r="A87" s="30">
         <v>5</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="17">
         <v>3000</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="18">
         <v>2969.4079999999999</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="19">
         <v>14.122</v>
       </c>
-      <c r="E87" s="33">
+      <c r="E87" s="31">
         <v>63.72</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="32">
+      <c r="A88" s="30">
         <v>10</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="17">
         <v>3000</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="18">
         <v>3032.48</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="19">
         <v>16.957999999999998</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E88" s="31">
         <v>85.29</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="32">
+      <c r="A89" s="30">
         <v>15</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="17">
         <v>3000</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="18">
         <v>2981.848</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="19">
         <v>19.87</v>
       </c>
-      <c r="E89" s="33">
+      <c r="E89" s="31">
         <v>90.727270000000004</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="32">
+      <c r="A90" s="30">
         <v>20</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="17">
         <v>3000</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="18">
         <v>3004.6439999999998</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="19">
         <v>25.734999999999999</v>
       </c>
-      <c r="E90" s="33">
+      <c r="E90" s="31">
         <v>139.02199999999999</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="32">
+      <c r="A91" s="30">
         <v>25</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="17">
         <v>3000</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="18">
         <v>2946.8</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="19">
         <v>32.241900000000001</v>
       </c>
-      <c r="E91" s="33">
+      <c r="E91" s="31">
         <v>170.73</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="32">
+      <c r="A92" s="30">
         <v>30</v>
       </c>
-      <c r="B92" s="19">
+      <c r="B92" s="17">
         <v>3000</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="34"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="32"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="32">
+      <c r="A93" s="30">
         <v>35</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="17">
         <v>3000</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="34"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="32"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="32">
+      <c r="A94" s="30">
         <v>74</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="17">
         <v>3000</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="34"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="32"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="32">
+      <c r="A95" s="30">
         <v>84</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="17">
         <v>3000</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="34"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="32"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="32">
+      <c r="A96" s="30">
         <v>90</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B96" s="17">
         <v>3000</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="34"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="32"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="32">
+      <c r="A97" s="30">
         <v>100</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="17">
         <v>3000</v>
       </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="34"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="32"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="32">
+      <c r="A98" s="30">
         <v>0</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B98" s="17">
         <v>3500</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="18">
         <v>3479.09</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="19">
         <v>16.75</v>
       </c>
-      <c r="E98" s="33">
+      <c r="E98" s="31">
         <v>104.28</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="32">
+      <c r="A99" s="30">
         <v>5</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="17">
         <v>3500</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="18">
         <v>3485.33</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="19">
         <v>19.015999999999998</v>
       </c>
-      <c r="E99" s="33">
+      <c r="E99" s="31">
         <v>112.3</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="32">
+      <c r="A100" s="30">
         <v>10</v>
       </c>
-      <c r="B100" s="19">
+      <c r="B100" s="17">
         <v>3500</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="18">
         <v>3419.55</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="19">
         <v>21.26</v>
       </c>
-      <c r="E100" s="33">
+      <c r="E100" s="31">
         <v>131.1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="32">
+      <c r="A101" s="30">
         <v>15</v>
       </c>
-      <c r="B101" s="19">
+      <c r="B101" s="17">
         <v>3500</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="18">
         <v>3445.4564999999998</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="19">
         <v>26.419699999999999</v>
       </c>
-      <c r="E101" s="33">
+      <c r="E101" s="31">
         <v>162.23259999999999</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="32">
+      <c r="A102" s="30">
         <v>20</v>
       </c>
-      <c r="B102" s="19">
+      <c r="B102" s="17">
         <v>3500</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="34"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="32"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="32">
+      <c r="A103" s="30">
         <v>25</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B103" s="17">
         <v>3500</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="36"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="34"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="32">
+      <c r="A104" s="30">
         <v>30</v>
       </c>
-      <c r="B104" s="19">
+      <c r="B104" s="17">
         <v>3500</v>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="34"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="32"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="32">
+      <c r="A105" s="30">
         <v>35</v>
       </c>
-      <c r="B105" s="19">
+      <c r="B105" s="17">
         <v>3500</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="34"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="32"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="32">
+      <c r="A106" s="30">
         <v>74</v>
       </c>
-      <c r="B106" s="19">
+      <c r="B106" s="17">
         <v>3500</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="34"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="32"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="32">
+      <c r="A107" s="30">
         <v>84</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B107" s="17">
         <v>3500</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="34"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="32"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="32">
+      <c r="A108" s="30">
         <v>90</v>
       </c>
-      <c r="B108" s="19">
+      <c r="B108" s="17">
         <v>3500</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="34"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="32"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="32">
+      <c r="A109" s="30">
         <v>100</v>
       </c>
-      <c r="B109" s="19">
+      <c r="B109" s="17">
         <v>3500</v>
       </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="34"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="32"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="32">
+      <c r="A110" s="30">
         <v>0</v>
       </c>
-      <c r="B110" s="19">
+      <c r="B110" s="17">
         <v>4000</v>
       </c>
-      <c r="C110" s="20">
+      <c r="C110" s="18">
         <v>3958.5</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="19">
         <v>21.6</v>
       </c>
-      <c r="E110" s="33">
+      <c r="E110" s="31">
         <v>145.54499999999999</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="32">
+      <c r="A111" s="30">
         <v>5</v>
       </c>
-      <c r="B111" s="19">
+      <c r="B111" s="17">
         <v>4000</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="18">
         <v>3964.84</v>
       </c>
-      <c r="D111" s="21">
+      <c r="D111" s="19">
         <v>24.5</v>
       </c>
-      <c r="E111" s="33">
+      <c r="E111" s="31">
         <v>160.86000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="32">
+      <c r="A112" s="30">
         <v>10</v>
       </c>
-      <c r="B112" s="19">
+      <c r="B112" s="17">
         <v>4000</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="34"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="32"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="32">
+      <c r="A113" s="30">
         <v>15</v>
       </c>
-      <c r="B113" s="19">
+      <c r="B113" s="17">
         <v>4000</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="34"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="32"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="32">
+      <c r="A114" s="30">
         <v>20</v>
       </c>
-      <c r="B114" s="19">
+      <c r="B114" s="17">
         <v>4000</v>
       </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="34"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="32"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="32">
+      <c r="A115" s="30">
         <v>25</v>
       </c>
-      <c r="B115" s="19">
+      <c r="B115" s="17">
         <v>4000</v>
       </c>
-      <c r="C115" s="26"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="36"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="34"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="32">
+      <c r="A116" s="30">
         <v>30</v>
       </c>
-      <c r="B116" s="19">
+      <c r="B116" s="17">
         <v>4000</v>
       </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="34"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="32"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="32">
+      <c r="A117" s="30">
         <v>35</v>
       </c>
-      <c r="B117" s="19">
+      <c r="B117" s="17">
         <v>4000</v>
       </c>
-      <c r="C117" s="22"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="34"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="32"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="32">
+      <c r="A118" s="30">
         <v>74</v>
       </c>
-      <c r="B118" s="19">
+      <c r="B118" s="17">
         <v>4000</v>
       </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="34"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="32"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="32">
+      <c r="A119" s="30">
         <v>84</v>
       </c>
-      <c r="B119" s="19">
+      <c r="B119" s="17">
         <v>4000</v>
       </c>
-      <c r="C119" s="22"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="34"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="32"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="32">
+      <c r="A120" s="30">
         <v>90</v>
       </c>
-      <c r="B120" s="19">
+      <c r="B120" s="17">
         <v>4000</v>
       </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="34"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="32"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A121" s="37">
+      <c r="A121" s="35">
         <v>100</v>
       </c>
-      <c r="B121" s="38">
+      <c r="B121" s="36">
         <v>4000</v>
       </c>
-      <c r="C121" s="39"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="41"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="39"/>
     </row>
   </sheetData>
   <sortState ref="A2:E121">
